--- a/Code/Results/Cases/Case_1_176/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_176/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9967383687298577</v>
+        <v>1.042731434381418</v>
       </c>
       <c r="D2">
-        <v>1.030836494972163</v>
+        <v>1.041576856449796</v>
       </c>
       <c r="E2">
-        <v>1.002995653336344</v>
+        <v>1.040761018512667</v>
       </c>
       <c r="F2">
-        <v>1.004227128173661</v>
+        <v>1.050403512934894</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043656069802941</v>
+        <v>1.040744902681959</v>
       </c>
       <c r="J2">
-        <v>1.019017074205696</v>
+        <v>1.047805679147217</v>
       </c>
       <c r="K2">
-        <v>1.041882315305105</v>
+        <v>1.044355978856416</v>
       </c>
       <c r="L2">
-        <v>1.014413411122319</v>
+        <v>1.043542451435393</v>
       </c>
       <c r="M2">
-        <v>1.015627884855763</v>
+        <v>1.053157886400989</v>
       </c>
       <c r="N2">
-        <v>1.020464195333961</v>
+        <v>1.049293683396598</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004341908972</v>
+        <v>1.044220127057493</v>
       </c>
       <c r="D3">
-        <v>1.034652978746589</v>
+        <v>1.042313192531403</v>
       </c>
       <c r="E3">
-        <v>1.009340803943328</v>
+        <v>1.042046211203316</v>
       </c>
       <c r="F3">
-        <v>1.012065257815671</v>
+        <v>1.052008299216081</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046023520090053</v>
+        <v>1.041129731209068</v>
       </c>
       <c r="J3">
-        <v>1.024714904954666</v>
+        <v>1.048938253193758</v>
       </c>
       <c r="K3">
-        <v>1.044860866170219</v>
+        <v>1.044903166044795</v>
       </c>
       <c r="L3">
-        <v>1.019855546402954</v>
+        <v>1.044636885870787</v>
       </c>
       <c r="M3">
-        <v>1.02254605431385</v>
+        <v>1.054573071348753</v>
       </c>
       <c r="N3">
-        <v>1.026170117656144</v>
+        <v>1.050427865828193</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.009109191630286</v>
+        <v>1.045181788534909</v>
       </c>
       <c r="D4">
-        <v>1.037054930397682</v>
+        <v>1.042788906250701</v>
       </c>
       <c r="E4">
-        <v>1.013325128182475</v>
+        <v>1.042876575032317</v>
       </c>
       <c r="F4">
-        <v>1.016985254735607</v>
+        <v>1.053045414033404</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047497776488745</v>
+        <v>1.041376872858322</v>
       </c>
       <c r="J4">
-        <v>1.028282719135792</v>
+        <v>1.049669098038517</v>
       </c>
       <c r="K4">
-        <v>1.046725794733021</v>
+        <v>1.045255822871302</v>
       </c>
       <c r="L4">
-        <v>1.023265347415464</v>
+        <v>1.045343273065088</v>
       </c>
       <c r="M4">
-        <v>1.026882915315929</v>
+        <v>1.055487023359698</v>
       </c>
       <c r="N4">
-        <v>1.029742998542641</v>
+        <v>1.051159748556461</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011078917229694</v>
+        <v>1.045585690640847</v>
       </c>
       <c r="D5">
-        <v>1.038049317293586</v>
+        <v>1.042988719446534</v>
       </c>
       <c r="E5">
-        <v>1.014972700484879</v>
+        <v>1.043225368659328</v>
       </c>
       <c r="F5">
-        <v>1.019019408012176</v>
+        <v>1.053481117016812</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048104397935617</v>
+        <v>1.041480325948137</v>
       </c>
       <c r="J5">
-        <v>1.029755678741896</v>
+        <v>1.049975870828653</v>
       </c>
       <c r="K5">
-        <v>1.047495577934275</v>
+        <v>1.045403744018809</v>
       </c>
       <c r="L5">
-        <v>1.024673559962276</v>
+        <v>1.045639816389435</v>
       </c>
       <c r="M5">
-        <v>1.028674594586281</v>
+        <v>1.055870833402843</v>
       </c>
       <c r="N5">
-        <v>1.031218049920337</v>
+        <v>1.051466956999146</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011407681448918</v>
+        <v>1.045653485507265</v>
       </c>
       <c r="D6">
-        <v>1.038215398093356</v>
+        <v>1.043022258633653</v>
       </c>
       <c r="E6">
-        <v>1.015247770929241</v>
+        <v>1.043283915732952</v>
       </c>
       <c r="F6">
-        <v>1.019359003402136</v>
+        <v>1.053554256115424</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048205498564932</v>
+        <v>1.041497670124055</v>
       </c>
       <c r="J6">
-        <v>1.030001457505093</v>
+        <v>1.050027351683523</v>
       </c>
       <c r="K6">
-        <v>1.047624012677437</v>
+        <v>1.045428560990247</v>
       </c>
       <c r="L6">
-        <v>1.024908563308568</v>
+        <v>1.04568958273989</v>
       </c>
       <c r="M6">
-        <v>1.028973628158368</v>
+        <v>1.05593525266286</v>
       </c>
       <c r="N6">
-        <v>1.031464177717568</v>
+        <v>1.051518510962735</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.009135643860443</v>
+        <v>1.045187186979378</v>
       </c>
       <c r="D7">
-        <v>1.037068276942918</v>
+        <v>1.042791576857491</v>
       </c>
       <c r="E7">
-        <v>1.01334724888544</v>
+        <v>1.042881236767192</v>
       </c>
       <c r="F7">
-        <v>1.017012566952421</v>
+        <v>1.053051237086547</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047505933077533</v>
+        <v>1.041378256950705</v>
       </c>
       <c r="J7">
-        <v>1.028302504831742</v>
+        <v>1.049673199008243</v>
       </c>
       <c r="K7">
-        <v>1.046736135651247</v>
+        <v>1.045257800718175</v>
       </c>
       <c r="L7">
-        <v>1.023284261474569</v>
+        <v>1.045347237142315</v>
       </c>
       <c r="M7">
-        <v>1.026906977355727</v>
+        <v>1.055492153470928</v>
       </c>
       <c r="N7">
-        <v>1.029762812336549</v>
+        <v>1.051163855350033</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.999340979616409</v>
+        <v>1.04323488575505</v>
       </c>
       <c r="D8">
-        <v>1.032140776384891</v>
+        <v>1.041825859831666</v>
       </c>
       <c r="E8">
-        <v>1.005166192633602</v>
+        <v>1.041195616115843</v>
       </c>
       <c r="F8">
-        <v>1.006908833210132</v>
+        <v>1.050946130076235</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044468501669501</v>
+        <v>1.040875345290038</v>
       </c>
       <c r="J8">
-        <v>1.020968315939784</v>
+        <v>1.048188856845582</v>
       </c>
       <c r="K8">
-        <v>1.042902292949567</v>
+        <v>1.044541196308064</v>
       </c>
       <c r="L8">
-        <v>1.016276636364139</v>
+        <v>1.043912693606118</v>
       </c>
       <c r="M8">
-        <v>1.01799602620753</v>
+        <v>1.053636525360034</v>
       </c>
       <c r="N8">
-        <v>1.022418208055121</v>
+        <v>1.049677405251245</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.980805486653207</v>
+        <v>1.039781898208861</v>
       </c>
       <c r="D9">
-        <v>1.022901406613546</v>
+        <v>1.040118369307237</v>
       </c>
       <c r="E9">
-        <v>0.9897387141106276</v>
+        <v>1.038215558477366</v>
       </c>
       <c r="F9">
-        <v>0.987835476918812</v>
+        <v>1.047226404204474</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038642470336418</v>
+        <v>1.039974753721203</v>
       </c>
       <c r="J9">
-        <v>1.007054748301969</v>
+        <v>1.045557623671904</v>
       </c>
       <c r="K9">
-        <v>1.035633538906823</v>
+        <v>1.043267570704804</v>
       </c>
       <c r="L9">
-        <v>1.003000496733418</v>
+        <v>1.041370925716987</v>
       </c>
       <c r="M9">
-        <v>1.001129047209144</v>
+        <v>1.05035278972083</v>
       </c>
       <c r="N9">
-        <v>1.008484881555352</v>
+        <v>1.047042435424654</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9674211617605699</v>
+        <v>1.037470807586542</v>
       </c>
       <c r="D10">
-        <v>1.01630614522017</v>
+        <v>1.038976061806128</v>
       </c>
       <c r="E10">
-        <v>0.97864431405944</v>
+        <v>1.036221901388161</v>
       </c>
       <c r="F10">
-        <v>0.9740967444600928</v>
+        <v>1.044739150100426</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034388865188546</v>
+        <v>1.039364553325774</v>
       </c>
       <c r="J10">
-        <v>0.9969897648185061</v>
+        <v>1.043792582388796</v>
       </c>
       <c r="K10">
-        <v>1.030387098948194</v>
+        <v>1.04241106085265</v>
       </c>
       <c r="L10">
-        <v>0.9934101627593757</v>
+        <v>1.039666707322353</v>
       </c>
       <c r="M10">
-        <v>0.9889499885211824</v>
+        <v>1.048153812572971</v>
       </c>
       <c r="N10">
-        <v>0.9984056046408727</v>
+        <v>1.045274887580471</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9613367780331852</v>
+        <v>1.036467808887635</v>
       </c>
       <c r="D11">
-        <v>1.013330771872848</v>
+        <v>1.038480463035773</v>
       </c>
       <c r="E11">
-        <v>0.9736139801336846</v>
+        <v>1.035356892242461</v>
       </c>
       <c r="F11">
-        <v>0.9678598122725748</v>
+        <v>1.043660256992327</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032445793421023</v>
+        <v>1.039097975382226</v>
       </c>
       <c r="J11">
-        <v>0.9924113919097028</v>
+        <v>1.043025633853671</v>
       </c>
       <c r="K11">
-        <v>1.028005593296788</v>
+        <v>1.042038395393675</v>
       </c>
       <c r="L11">
-        <v>0.9890512640069186</v>
+        <v>1.038926381543768</v>
       </c>
       <c r="M11">
-        <v>0.9834144109903925</v>
+        <v>1.047199193081839</v>
       </c>
       <c r="N11">
-        <v>0.9938207299173921</v>
+        <v>1.044506849890455</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9590288401024627</v>
+        <v>1.036094897987319</v>
       </c>
       <c r="D12">
-        <v>1.012206010280865</v>
+        <v>1.03829622746782</v>
       </c>
       <c r="E12">
-        <v>0.971708046891632</v>
+        <v>1.035035320161492</v>
       </c>
       <c r="F12">
-        <v>0.9654953425971431</v>
+        <v>1.043259212777804</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031707488551148</v>
+        <v>1.038998599800528</v>
       </c>
       <c r="J12">
-        <v>0.9906744101163777</v>
+        <v>1.042740345935744</v>
       </c>
       <c r="K12">
-        <v>1.027103039928433</v>
+        <v>1.04189969945224</v>
       </c>
       <c r="L12">
-        <v>0.9873981180245308</v>
+        <v>1.03865102600142</v>
       </c>
       <c r="M12">
-        <v>0.9813148607389679</v>
+        <v>1.046844227666764</v>
       </c>
       <c r="N12">
-        <v>0.992081281410686</v>
+        <v>1.044221156830962</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.959526149366385</v>
+        <v>1.036174904751989</v>
       </c>
       <c r="D13">
-        <v>1.012448189579357</v>
+        <v>1.038335753358835</v>
       </c>
       <c r="E13">
-        <v>0.9721186309349611</v>
+        <v>1.035104310764176</v>
       </c>
       <c r="F13">
-        <v>0.9660047722396795</v>
+        <v>1.043345251654142</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031866630726553</v>
+        <v>1.039019932380812</v>
       </c>
       <c r="J13">
-        <v>0.9910487025332347</v>
+        <v>1.042801559793033</v>
       </c>
       <c r="K13">
-        <v>1.027297479036114</v>
+        <v>1.041929462521223</v>
       </c>
       <c r="L13">
-        <v>0.9877543188290335</v>
+        <v>1.03871010735359</v>
       </c>
       <c r="M13">
-        <v>0.9817672561050182</v>
+        <v>1.046920386176586</v>
       </c>
       <c r="N13">
-        <v>0.9924561053657067</v>
+        <v>1.04428245761895</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9611470093983633</v>
+        <v>1.036436991204656</v>
       </c>
       <c r="D14">
-        <v>1.013238208164322</v>
+        <v>1.038465237099927</v>
       </c>
       <c r="E14">
-        <v>0.9734572205309162</v>
+        <v>1.035330316527849</v>
       </c>
       <c r="F14">
-        <v>0.9676653680517054</v>
+        <v>1.043627112636887</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032385111268741</v>
+        <v>1.0390897682562</v>
       </c>
       <c r="J14">
-        <v>0.9922685751353757</v>
+        <v>1.043002060253263</v>
       </c>
       <c r="K14">
-        <v>1.027931363463734</v>
+        <v>1.04202693629379</v>
       </c>
       <c r="L14">
-        <v>0.9889153285569221</v>
+        <v>1.038903628066227</v>
       </c>
       <c r="M14">
-        <v>0.9832417720810185</v>
+        <v>1.047169859280341</v>
       </c>
       <c r="N14">
-        <v>0.9936777103268641</v>
+        <v>1.044483242812831</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9621391773453725</v>
+        <v>1.0365984243106</v>
       </c>
       <c r="D15">
-        <v>1.01372231882716</v>
+        <v>1.038544996616652</v>
       </c>
       <c r="E15">
-        <v>0.9742768971604139</v>
+        <v>1.035469530248423</v>
       </c>
       <c r="F15">
-        <v>0.9686820358034677</v>
+        <v>1.043800737049173</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032702325957229</v>
+        <v>1.039132749106363</v>
       </c>
       <c r="J15">
-        <v>0.9930152529253693</v>
+        <v>1.043125540775863</v>
       </c>
       <c r="K15">
-        <v>1.028319493884494</v>
+        <v>1.042086957069678</v>
       </c>
       <c r="L15">
-        <v>0.9896260526078519</v>
+        <v>1.039022813915666</v>
       </c>
       <c r="M15">
-        <v>0.984144389792879</v>
+        <v>1.047323517621862</v>
       </c>
       <c r="N15">
-        <v>0.9944254484849647</v>
+        <v>1.044606898691937</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9678185042574136</v>
+        <v>1.037537324409833</v>
       </c>
       <c r="D16">
-        <v>1.016500959039421</v>
+        <v>1.039008932407355</v>
       </c>
       <c r="E16">
-        <v>0.9789731091031542</v>
+        <v>1.036279271855716</v>
       </c>
       <c r="F16">
-        <v>0.9745042298294756</v>
+        <v>1.044810711851148</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034515576439373</v>
+        <v>1.039382195348219</v>
       </c>
       <c r="J16">
-        <v>0.9972887071798864</v>
+        <v>1.043843425273437</v>
       </c>
       <c r="K16">
-        <v>1.03054271853634</v>
+        <v>1.042435755499827</v>
       </c>
       <c r="L16">
-        <v>0.9936948510653169</v>
+        <v>1.039715789413542</v>
       </c>
       <c r="M16">
-        <v>0.989311516046442</v>
+        <v>1.048217115144493</v>
       </c>
       <c r="N16">
-        <v>0.9987049715346955</v>
+        <v>1.045325802667839</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9713006577492003</v>
+        <v>1.03812565399873</v>
       </c>
       <c r="D17">
-        <v>1.018210841605243</v>
+        <v>1.039299685363185</v>
       </c>
       <c r="E17">
-        <v>0.9818560342321714</v>
+        <v>1.036786729671157</v>
       </c>
       <c r="F17">
-        <v>0.9780762402242131</v>
+        <v>1.045443727468949</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035624980718921</v>
+        <v>1.039538033532183</v>
       </c>
       <c r="J17">
-        <v>0.9999082051972583</v>
+        <v>1.044293014178368</v>
       </c>
       <c r="K17">
-        <v>1.031906929224249</v>
+        <v>1.042654066402794</v>
       </c>
       <c r="L17">
-        <v>0.9961898519617389</v>
+        <v>1.040149830511604</v>
       </c>
       <c r="M17">
-        <v>0.9924799112821082</v>
+        <v>1.048776983237168</v>
       </c>
       <c r="N17">
-        <v>1.001328189539713</v>
+        <v>1.045776030040584</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9733042039519412</v>
+        <v>1.03846859725706</v>
       </c>
       <c r="D18">
-        <v>1.0191967688719</v>
+        <v>1.03946918299373</v>
       </c>
       <c r="E18">
-        <v>0.9835160085640555</v>
+        <v>1.037082553608892</v>
       </c>
       <c r="F18">
-        <v>0.980132286804152</v>
+        <v>1.045812772576828</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036262410736043</v>
+        <v>1.03962870405043</v>
       </c>
       <c r="J18">
-        <v>1.001415116593642</v>
+        <v>1.044554994276534</v>
       </c>
       <c r="K18">
-        <v>1.032692168791712</v>
+        <v>1.042781230807836</v>
       </c>
       <c r="L18">
-        <v>0.9976254757232527</v>
+        <v>1.040402769400669</v>
       </c>
       <c r="M18">
-        <v>0.9943030078471794</v>
+        <v>1.049103309282761</v>
       </c>
       <c r="N18">
-        <v>1.002837240923125</v>
+        <v>1.046038382180539</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9739828180541269</v>
+        <v>1.038585495120395</v>
       </c>
       <c r="D19">
-        <v>1.019531053240269</v>
+        <v>1.039526961482877</v>
       </c>
       <c r="E19">
-        <v>0.9840784518439744</v>
+        <v>1.037183393717684</v>
       </c>
       <c r="F19">
-        <v>0.9808288173461579</v>
+        <v>1.045938576834046</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036478156302831</v>
+        <v>1.039659581883146</v>
       </c>
       <c r="J19">
-        <v>1.001925465418708</v>
+        <v>1.044644279263741</v>
       </c>
       <c r="K19">
-        <v>1.032958178631866</v>
+        <v>1.042824561368427</v>
       </c>
       <c r="L19">
-        <v>0.9981117367063316</v>
+        <v>1.040488976228704</v>
       </c>
       <c r="M19">
-        <v>0.9949205137791146</v>
+        <v>1.049214538364502</v>
       </c>
       <c r="N19">
-        <v>1.00334831450206</v>
+        <v>1.046127793962669</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9709299343426995</v>
+        <v>1.03806255457012</v>
       </c>
       <c r="D20">
-        <v>1.018028579374596</v>
+        <v>1.039268500024372</v>
       </c>
       <c r="E20">
-        <v>0.981548979764824</v>
+        <v>1.036732301641374</v>
       </c>
       <c r="F20">
-        <v>0.9776958669246459</v>
+        <v>1.045375829804803</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03550696118583</v>
+        <v>1.039521337094576</v>
       </c>
       <c r="J20">
-        <v>0.9996293520233701</v>
+        <v>1.044244804231745</v>
       </c>
       <c r="K20">
-        <v>1.031761656421067</v>
+        <v>1.042630661583897</v>
       </c>
       <c r="L20">
-        <v>0.9959242171711322</v>
+        <v>1.040103285842699</v>
       </c>
       <c r="M20">
-        <v>0.9921425830268459</v>
+        <v>1.048716939120993</v>
       </c>
       <c r="N20">
-        <v>1.001048940362332</v>
+        <v>1.045727751630308</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9606710692157512</v>
+        <v>1.036359823087184</v>
       </c>
       <c r="D21">
-        <v>1.013006121805715</v>
+        <v>1.038427111471067</v>
       </c>
       <c r="E21">
-        <v>0.9730641029105095</v>
+        <v>1.035263770953503</v>
       </c>
       <c r="F21">
-        <v>0.9671777230814003</v>
+        <v>1.043544119838278</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032232900680822</v>
+        <v>1.03906921319762</v>
       </c>
       <c r="J21">
-        <v>0.9919103858920054</v>
+        <v>1.042943029217061</v>
       </c>
       <c r="K21">
-        <v>1.027745208781614</v>
+        <v>1.041998240207844</v>
       </c>
       <c r="L21">
-        <v>0.9885744071867636</v>
+        <v>1.038846651186732</v>
       </c>
       <c r="M21">
-        <v>0.9828087970053123</v>
+        <v>1.047096406159082</v>
       </c>
       <c r="N21">
-        <v>0.9933190124136835</v>
+        <v>1.044424127945786</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9539408684154658</v>
+        <v>1.035287203710453</v>
       </c>
       <c r="D22">
-        <v>1.009734076906456</v>
+        <v>1.037897239076817</v>
       </c>
       <c r="E22">
-        <v>0.9675106085204402</v>
+        <v>1.034338886388246</v>
       </c>
       <c r="F22">
-        <v>0.9602852624489866</v>
+        <v>1.042390737454307</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030077730393737</v>
+        <v>1.03878288013997</v>
       </c>
       <c r="J22">
-        <v>0.98684473942913</v>
+        <v>1.042122181083925</v>
       </c>
       <c r="K22">
-        <v>1.025115135142354</v>
+        <v>1.041599040401966</v>
       </c>
       <c r="L22">
-        <v>0.9837543817705905</v>
+        <v>1.038054436519322</v>
       </c>
       <c r="M22">
-        <v>0.9766867804659124</v>
+        <v>1.046075325476636</v>
       </c>
       <c r="N22">
-        <v>0.9882461721517931</v>
+        <v>1.043602114114149</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.957536912913838</v>
+        <v>1.035856016624227</v>
       </c>
       <c r="D23">
-        <v>1.011480075413844</v>
+        <v>1.038178216488674</v>
       </c>
       <c r="E23">
-        <v>0.9704766332074943</v>
+        <v>1.034829335644613</v>
       </c>
       <c r="F23">
-        <v>0.9639672536327623</v>
+        <v>1.043002333228857</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031229891431296</v>
+        <v>1.038934867282918</v>
       </c>
       <c r="J23">
-        <v>0.9895514996712828</v>
+        <v>1.042557555374883</v>
       </c>
       <c r="K23">
-        <v>1.026519863916234</v>
+        <v>1.041810813500722</v>
       </c>
       <c r="L23">
-        <v>0.9863295704552193</v>
+        <v>1.038474607612457</v>
       </c>
       <c r="M23">
-        <v>0.979957713056541</v>
+        <v>1.046616830175427</v>
       </c>
       <c r="N23">
-        <v>0.9909567763039595</v>
+        <v>1.044038106686538</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.971097533049319</v>
+        <v>1.038091067164052</v>
       </c>
       <c r="D24">
-        <v>1.018110970998567</v>
+        <v>1.039282591626293</v>
       </c>
       <c r="E24">
-        <v>0.9816877909186679</v>
+        <v>1.036756895843373</v>
       </c>
       <c r="F24">
-        <v>0.9778678257291881</v>
+        <v>1.045406510399752</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035560318905779</v>
+        <v>1.039528882198364</v>
       </c>
       <c r="J24">
-        <v>0.9997554184145824</v>
+        <v>1.0442665890273</v>
       </c>
       <c r="K24">
-        <v>1.031827331230194</v>
+        <v>1.04264123774779</v>
       </c>
       <c r="L24">
-        <v>0.9960443066517191</v>
+        <v>1.040124318085773</v>
       </c>
       <c r="M24">
-        <v>0.9922950840266054</v>
+        <v>1.048744071200499</v>
       </c>
       <c r="N24">
-        <v>1.00117518578228</v>
+        <v>1.045749567362771</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9857647347097176</v>
+        <v>1.040676144818778</v>
       </c>
       <c r="D25">
-        <v>1.025361849685155</v>
+        <v>1.040560490795455</v>
       </c>
       <c r="E25">
-        <v>0.993859310384877</v>
+        <v>1.038987172295075</v>
       </c>
       <c r="F25">
-        <v>0.9929330143978535</v>
+        <v>1.048189313491425</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040209659100414</v>
+        <v>1.040209297272418</v>
       </c>
       <c r="J25">
-        <v>1.010780856467209</v>
+        <v>1.046239751520525</v>
       </c>
       <c r="K25">
-        <v>1.037578811594507</v>
+        <v>1.043598133983424</v>
       </c>
       <c r="L25">
-        <v>1.006553706520428</v>
+        <v>1.042029718774939</v>
       </c>
       <c r="M25">
-        <v>1.005642035872519</v>
+        <v>1.051203409042699</v>
       </c>
       <c r="N25">
-        <v>1.012216281221577</v>
+        <v>1.047725531973061</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_176/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_176/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.042731434381418</v>
+        <v>0.9967383687298579</v>
       </c>
       <c r="D2">
-        <v>1.041576856449796</v>
+        <v>1.030836494972164</v>
       </c>
       <c r="E2">
-        <v>1.040761018512667</v>
+        <v>1.002995653336345</v>
       </c>
       <c r="F2">
-        <v>1.050403512934894</v>
+        <v>1.004227128173661</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040744902681959</v>
+        <v>1.043656069802941</v>
       </c>
       <c r="J2">
-        <v>1.047805679147217</v>
+        <v>1.019017074205697</v>
       </c>
       <c r="K2">
-        <v>1.044355978856416</v>
+        <v>1.041882315305105</v>
       </c>
       <c r="L2">
-        <v>1.043542451435393</v>
+        <v>1.014413411122319</v>
       </c>
       <c r="M2">
-        <v>1.053157886400989</v>
+        <v>1.015627884855764</v>
       </c>
       <c r="N2">
-        <v>1.049293683396598</v>
+        <v>1.020464195333961</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.044220127057493</v>
+        <v>1.004341908972</v>
       </c>
       <c r="D3">
-        <v>1.042313192531403</v>
+        <v>1.034652978746589</v>
       </c>
       <c r="E3">
-        <v>1.042046211203316</v>
+        <v>1.009340803943328</v>
       </c>
       <c r="F3">
-        <v>1.052008299216081</v>
+        <v>1.012065257815671</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041129731209068</v>
+        <v>1.046023520090053</v>
       </c>
       <c r="J3">
-        <v>1.048938253193758</v>
+        <v>1.024714904954667</v>
       </c>
       <c r="K3">
-        <v>1.044903166044795</v>
+        <v>1.044860866170219</v>
       </c>
       <c r="L3">
-        <v>1.044636885870787</v>
+        <v>1.019855546402954</v>
       </c>
       <c r="M3">
-        <v>1.054573071348753</v>
+        <v>1.02254605431385</v>
       </c>
       <c r="N3">
-        <v>1.050427865828193</v>
+        <v>1.026170117656145</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045181788534909</v>
+        <v>1.009109191630287</v>
       </c>
       <c r="D4">
-        <v>1.042788906250701</v>
+        <v>1.037054930397682</v>
       </c>
       <c r="E4">
-        <v>1.042876575032317</v>
+        <v>1.013325128182475</v>
       </c>
       <c r="F4">
-        <v>1.053045414033404</v>
+        <v>1.016985254735608</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041376872858322</v>
+        <v>1.047497776488745</v>
       </c>
       <c r="J4">
-        <v>1.049669098038517</v>
+        <v>1.028282719135792</v>
       </c>
       <c r="K4">
-        <v>1.045255822871302</v>
+        <v>1.046725794733021</v>
       </c>
       <c r="L4">
-        <v>1.045343273065088</v>
+        <v>1.023265347415464</v>
       </c>
       <c r="M4">
-        <v>1.055487023359698</v>
+        <v>1.026882915315929</v>
       </c>
       <c r="N4">
-        <v>1.051159748556461</v>
+        <v>1.029742998542641</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.045585690640847</v>
+        <v>1.011078917229694</v>
       </c>
       <c r="D5">
-        <v>1.042988719446534</v>
+        <v>1.038049317293585</v>
       </c>
       <c r="E5">
-        <v>1.043225368659328</v>
+        <v>1.014972700484878</v>
       </c>
       <c r="F5">
-        <v>1.053481117016812</v>
+        <v>1.019019408012175</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041480325948137</v>
+        <v>1.048104397935616</v>
       </c>
       <c r="J5">
-        <v>1.049975870828653</v>
+        <v>1.029755678741895</v>
       </c>
       <c r="K5">
-        <v>1.045403744018809</v>
+        <v>1.047495577934274</v>
       </c>
       <c r="L5">
-        <v>1.045639816389435</v>
+        <v>1.024673559962276</v>
       </c>
       <c r="M5">
-        <v>1.055870833402843</v>
+        <v>1.02867459458628</v>
       </c>
       <c r="N5">
-        <v>1.051466956999146</v>
+        <v>1.031218049920336</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.045653485507265</v>
+        <v>1.011407681448918</v>
       </c>
       <c r="D6">
-        <v>1.043022258633653</v>
+        <v>1.038215398093356</v>
       </c>
       <c r="E6">
-        <v>1.043283915732952</v>
+        <v>1.015247770929241</v>
       </c>
       <c r="F6">
-        <v>1.053554256115424</v>
+        <v>1.019359003402136</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041497670124055</v>
+        <v>1.048205498564932</v>
       </c>
       <c r="J6">
-        <v>1.050027351683523</v>
+        <v>1.030001457505093</v>
       </c>
       <c r="K6">
-        <v>1.045428560990247</v>
+        <v>1.047624012677437</v>
       </c>
       <c r="L6">
-        <v>1.04568958273989</v>
+        <v>1.024908563308568</v>
       </c>
       <c r="M6">
-        <v>1.05593525266286</v>
+        <v>1.028973628158368</v>
       </c>
       <c r="N6">
-        <v>1.051518510962735</v>
+        <v>1.031464177717569</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045187186979378</v>
+        <v>1.009135643860443</v>
       </c>
       <c r="D7">
-        <v>1.042791576857491</v>
+        <v>1.037068276942918</v>
       </c>
       <c r="E7">
-        <v>1.042881236767192</v>
+        <v>1.01334724888544</v>
       </c>
       <c r="F7">
-        <v>1.053051237086547</v>
+        <v>1.01701256695242</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041378256950705</v>
+        <v>1.047505933077533</v>
       </c>
       <c r="J7">
-        <v>1.049673199008243</v>
+        <v>1.028302504831742</v>
       </c>
       <c r="K7">
-        <v>1.045257800718175</v>
+        <v>1.046736135651247</v>
       </c>
       <c r="L7">
-        <v>1.045347237142315</v>
+        <v>1.023284261474569</v>
       </c>
       <c r="M7">
-        <v>1.055492153470928</v>
+        <v>1.026906977355727</v>
       </c>
       <c r="N7">
-        <v>1.051163855350033</v>
+        <v>1.029762812336549</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.04323488575505</v>
+        <v>0.9993409796164092</v>
       </c>
       <c r="D8">
-        <v>1.041825859831666</v>
+        <v>1.032140776384891</v>
       </c>
       <c r="E8">
-        <v>1.041195616115843</v>
+        <v>1.005166192633602</v>
       </c>
       <c r="F8">
-        <v>1.050946130076235</v>
+        <v>1.006908833210132</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040875345290038</v>
+        <v>1.044468501669501</v>
       </c>
       <c r="J8">
-        <v>1.048188856845582</v>
+        <v>1.020968315939784</v>
       </c>
       <c r="K8">
-        <v>1.044541196308064</v>
+        <v>1.042902292949567</v>
       </c>
       <c r="L8">
-        <v>1.043912693606118</v>
+        <v>1.016276636364139</v>
       </c>
       <c r="M8">
-        <v>1.053636525360034</v>
+        <v>1.01799602620753</v>
       </c>
       <c r="N8">
-        <v>1.049677405251245</v>
+        <v>1.022418208055121</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039781898208861</v>
+        <v>0.9808054866532069</v>
       </c>
       <c r="D9">
-        <v>1.040118369307237</v>
+        <v>1.022901406613546</v>
       </c>
       <c r="E9">
-        <v>1.038215558477366</v>
+        <v>0.9897387141106275</v>
       </c>
       <c r="F9">
-        <v>1.047226404204474</v>
+        <v>0.9878354769188119</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039974753721203</v>
+        <v>1.038642470336418</v>
       </c>
       <c r="J9">
-        <v>1.045557623671904</v>
+        <v>1.007054748301969</v>
       </c>
       <c r="K9">
-        <v>1.043267570704804</v>
+        <v>1.035633538906823</v>
       </c>
       <c r="L9">
-        <v>1.041370925716987</v>
+        <v>1.003000496733418</v>
       </c>
       <c r="M9">
-        <v>1.05035278972083</v>
+        <v>1.001129047209144</v>
       </c>
       <c r="N9">
-        <v>1.047042435424654</v>
+        <v>1.008484881555352</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037470807586542</v>
+        <v>0.9674211617605701</v>
       </c>
       <c r="D10">
-        <v>1.038976061806128</v>
+        <v>1.01630614522017</v>
       </c>
       <c r="E10">
-        <v>1.036221901388161</v>
+        <v>0.9786443140594404</v>
       </c>
       <c r="F10">
-        <v>1.044739150100426</v>
+        <v>0.9740967444600926</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039364553325774</v>
+        <v>1.034388865188546</v>
       </c>
       <c r="J10">
-        <v>1.043792582388796</v>
+        <v>0.9969897648185062</v>
       </c>
       <c r="K10">
-        <v>1.04241106085265</v>
+        <v>1.030387098948193</v>
       </c>
       <c r="L10">
-        <v>1.039666707322353</v>
+        <v>0.9934101627593757</v>
       </c>
       <c r="M10">
-        <v>1.048153812572971</v>
+        <v>0.9889499885211822</v>
       </c>
       <c r="N10">
-        <v>1.045274887580471</v>
+        <v>0.9984056046408728</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.036467808887635</v>
+        <v>0.9613367780331853</v>
       </c>
       <c r="D11">
-        <v>1.038480463035773</v>
+        <v>1.013330771872848</v>
       </c>
       <c r="E11">
-        <v>1.035356892242461</v>
+        <v>0.9736139801336846</v>
       </c>
       <c r="F11">
-        <v>1.043660256992327</v>
+        <v>0.967859812272575</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039097975382226</v>
+        <v>1.032445793421023</v>
       </c>
       <c r="J11">
-        <v>1.043025633853671</v>
+        <v>0.992411391909703</v>
       </c>
       <c r="K11">
-        <v>1.042038395393675</v>
+        <v>1.028005593296788</v>
       </c>
       <c r="L11">
-        <v>1.038926381543768</v>
+        <v>0.9890512640069187</v>
       </c>
       <c r="M11">
-        <v>1.047199193081839</v>
+        <v>0.9834144109903927</v>
       </c>
       <c r="N11">
-        <v>1.044506849890455</v>
+        <v>0.9938207299173923</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036094897987319</v>
+        <v>0.959028840102463</v>
       </c>
       <c r="D12">
-        <v>1.03829622746782</v>
+        <v>1.012206010280865</v>
       </c>
       <c r="E12">
-        <v>1.035035320161492</v>
+        <v>0.9717080468916324</v>
       </c>
       <c r="F12">
-        <v>1.043259212777804</v>
+        <v>0.9654953425971432</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038998599800528</v>
+        <v>1.031707488551148</v>
       </c>
       <c r="J12">
-        <v>1.042740345935744</v>
+        <v>0.990674410116378</v>
       </c>
       <c r="K12">
-        <v>1.04189969945224</v>
+        <v>1.027103039928433</v>
       </c>
       <c r="L12">
-        <v>1.03865102600142</v>
+        <v>0.9873981180245311</v>
       </c>
       <c r="M12">
-        <v>1.046844227666764</v>
+        <v>0.9813148607389681</v>
       </c>
       <c r="N12">
-        <v>1.044221156830962</v>
+        <v>0.9920812814106864</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.036174904751989</v>
+        <v>0.9595261493663857</v>
       </c>
       <c r="D13">
-        <v>1.038335753358835</v>
+        <v>1.012448189579358</v>
       </c>
       <c r="E13">
-        <v>1.035104310764176</v>
+        <v>0.9721186309349613</v>
       </c>
       <c r="F13">
-        <v>1.043345251654142</v>
+        <v>0.96600477223968</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039019932380812</v>
+        <v>1.031866630726554</v>
       </c>
       <c r="J13">
-        <v>1.042801559793033</v>
+        <v>0.9910487025332353</v>
       </c>
       <c r="K13">
-        <v>1.041929462521223</v>
+        <v>1.027297479036114</v>
       </c>
       <c r="L13">
-        <v>1.03871010735359</v>
+        <v>0.9877543188290338</v>
       </c>
       <c r="M13">
-        <v>1.046920386176586</v>
+        <v>0.9817672561050187</v>
       </c>
       <c r="N13">
-        <v>1.04428245761895</v>
+        <v>0.9924561053657074</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.036436991204656</v>
+        <v>0.9611470093983645</v>
       </c>
       <c r="D14">
-        <v>1.038465237099927</v>
+        <v>1.013238208164322</v>
       </c>
       <c r="E14">
-        <v>1.035330316527849</v>
+        <v>0.9734572205309171</v>
       </c>
       <c r="F14">
-        <v>1.043627112636887</v>
+        <v>0.967665368051706</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0390897682562</v>
+        <v>1.032385111268741</v>
       </c>
       <c r="J14">
-        <v>1.043002060253263</v>
+        <v>0.9922685751353766</v>
       </c>
       <c r="K14">
-        <v>1.04202693629379</v>
+        <v>1.027931363463734</v>
       </c>
       <c r="L14">
-        <v>1.038903628066227</v>
+        <v>0.9889153285569229</v>
       </c>
       <c r="M14">
-        <v>1.047169859280341</v>
+        <v>0.9832417720810191</v>
       </c>
       <c r="N14">
-        <v>1.044483242812831</v>
+        <v>0.9936777103268651</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.0365984243106</v>
+        <v>0.9621391773453707</v>
       </c>
       <c r="D15">
-        <v>1.038544996616652</v>
+        <v>1.013722318827159</v>
       </c>
       <c r="E15">
-        <v>1.035469530248423</v>
+        <v>0.9742768971604123</v>
       </c>
       <c r="F15">
-        <v>1.043800737049173</v>
+        <v>0.9686820358034661</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039132749106363</v>
+        <v>1.032702325957228</v>
       </c>
       <c r="J15">
-        <v>1.043125540775863</v>
+        <v>0.9930152529253675</v>
       </c>
       <c r="K15">
-        <v>1.042086957069678</v>
+        <v>1.028319493884494</v>
       </c>
       <c r="L15">
-        <v>1.039022813915666</v>
+        <v>0.9896260526078504</v>
       </c>
       <c r="M15">
-        <v>1.047323517621862</v>
+        <v>0.9841443897928777</v>
       </c>
       <c r="N15">
-        <v>1.044606898691937</v>
+        <v>0.9944254484849631</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037537324409833</v>
+        <v>0.9678185042574127</v>
       </c>
       <c r="D16">
-        <v>1.039008932407355</v>
+        <v>1.016500959039421</v>
       </c>
       <c r="E16">
-        <v>1.036279271855716</v>
+        <v>0.9789731091031532</v>
       </c>
       <c r="F16">
-        <v>1.044810711851148</v>
+        <v>0.9745042298294748</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039382195348219</v>
+        <v>1.034515576439373</v>
       </c>
       <c r="J16">
-        <v>1.043843425273437</v>
+        <v>0.9972887071798856</v>
       </c>
       <c r="K16">
-        <v>1.042435755499827</v>
+        <v>1.03054271853634</v>
       </c>
       <c r="L16">
-        <v>1.039715789413542</v>
+        <v>0.9936948510653159</v>
       </c>
       <c r="M16">
-        <v>1.048217115144493</v>
+        <v>0.9893115160464413</v>
       </c>
       <c r="N16">
-        <v>1.045325802667839</v>
+        <v>0.9987049715346946</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.03812565399873</v>
+        <v>0.9713006577492012</v>
       </c>
       <c r="D17">
-        <v>1.039299685363185</v>
+        <v>1.018210841605243</v>
       </c>
       <c r="E17">
-        <v>1.036786729671157</v>
+        <v>0.9818560342321722</v>
       </c>
       <c r="F17">
-        <v>1.045443727468949</v>
+        <v>0.9780762402242136</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039538033532183</v>
+        <v>1.035624980718922</v>
       </c>
       <c r="J17">
-        <v>1.044293014178368</v>
+        <v>0.9999082051972592</v>
       </c>
       <c r="K17">
-        <v>1.042654066402794</v>
+        <v>1.03190692922425</v>
       </c>
       <c r="L17">
-        <v>1.040149830511604</v>
+        <v>0.9961898519617396</v>
       </c>
       <c r="M17">
-        <v>1.048776983237168</v>
+        <v>0.9924799112821087</v>
       </c>
       <c r="N17">
-        <v>1.045776030040584</v>
+        <v>1.001328189539713</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.03846859725706</v>
+        <v>0.9733042039519414</v>
       </c>
       <c r="D18">
-        <v>1.03946918299373</v>
+        <v>1.0191967688719</v>
       </c>
       <c r="E18">
-        <v>1.037082553608892</v>
+        <v>0.9835160085640555</v>
       </c>
       <c r="F18">
-        <v>1.045812772576828</v>
+        <v>0.9801322868041525</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03962870405043</v>
+        <v>1.036262410736043</v>
       </c>
       <c r="J18">
-        <v>1.044554994276534</v>
+        <v>1.001415116593642</v>
       </c>
       <c r="K18">
-        <v>1.042781230807836</v>
+        <v>1.032692168791713</v>
       </c>
       <c r="L18">
-        <v>1.040402769400669</v>
+        <v>0.9976254757232526</v>
       </c>
       <c r="M18">
-        <v>1.049103309282761</v>
+        <v>0.99430300784718</v>
       </c>
       <c r="N18">
-        <v>1.046038382180539</v>
+        <v>1.002837240923125</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038585495120395</v>
+        <v>0.9739828180541279</v>
       </c>
       <c r="D19">
-        <v>1.039526961482877</v>
+        <v>1.019531053240269</v>
       </c>
       <c r="E19">
-        <v>1.037183393717684</v>
+        <v>0.9840784518439755</v>
       </c>
       <c r="F19">
-        <v>1.045938576834046</v>
+        <v>0.9808288173461586</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039659581883146</v>
+        <v>1.036478156302831</v>
       </c>
       <c r="J19">
-        <v>1.044644279263741</v>
+        <v>1.001925465418709</v>
       </c>
       <c r="K19">
-        <v>1.042824561368427</v>
+        <v>1.032958178631866</v>
       </c>
       <c r="L19">
-        <v>1.040488976228704</v>
+        <v>0.9981117367063326</v>
       </c>
       <c r="M19">
-        <v>1.049214538364502</v>
+        <v>0.9949205137791156</v>
       </c>
       <c r="N19">
-        <v>1.046127793962669</v>
+        <v>1.003348314502061</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.03806255457012</v>
+        <v>0.970929934342701</v>
       </c>
       <c r="D20">
-        <v>1.039268500024372</v>
+        <v>1.018028579374596</v>
       </c>
       <c r="E20">
-        <v>1.036732301641374</v>
+        <v>0.9815489797648251</v>
       </c>
       <c r="F20">
-        <v>1.045375829804803</v>
+        <v>0.9776958669246471</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039521337094576</v>
+        <v>1.03550696118583</v>
       </c>
       <c r="J20">
-        <v>1.044244804231745</v>
+        <v>0.9996293520233712</v>
       </c>
       <c r="K20">
-        <v>1.042630661583897</v>
+        <v>1.031761656421067</v>
       </c>
       <c r="L20">
-        <v>1.040103285842699</v>
+        <v>0.9959242171711333</v>
       </c>
       <c r="M20">
-        <v>1.048716939120993</v>
+        <v>0.992142583026847</v>
       </c>
       <c r="N20">
-        <v>1.045727751630308</v>
+        <v>1.001048940362334</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.036359823087184</v>
+        <v>0.9606710692157511</v>
       </c>
       <c r="D21">
-        <v>1.038427111471067</v>
+        <v>1.013006121805716</v>
       </c>
       <c r="E21">
-        <v>1.035263770953503</v>
+        <v>0.9730641029105092</v>
       </c>
       <c r="F21">
-        <v>1.043544119838278</v>
+        <v>0.9671777230814003</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03906921319762</v>
+        <v>1.032232900680821</v>
       </c>
       <c r="J21">
-        <v>1.042943029217061</v>
+        <v>0.9919103858920052</v>
       </c>
       <c r="K21">
-        <v>1.041998240207844</v>
+        <v>1.027745208781615</v>
       </c>
       <c r="L21">
-        <v>1.038846651186732</v>
+        <v>0.9885744071867635</v>
       </c>
       <c r="M21">
-        <v>1.047096406159082</v>
+        <v>0.9828087970053124</v>
       </c>
       <c r="N21">
-        <v>1.044424127945786</v>
+        <v>0.9933190124136831</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.035287203710453</v>
+        <v>0.9539408684154648</v>
       </c>
       <c r="D22">
-        <v>1.037897239076817</v>
+        <v>1.009734076906456</v>
       </c>
       <c r="E22">
-        <v>1.034338886388246</v>
+        <v>0.9675106085204392</v>
       </c>
       <c r="F22">
-        <v>1.042390737454307</v>
+        <v>0.9602852624489854</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03878288013997</v>
+        <v>1.030077730393737</v>
       </c>
       <c r="J22">
-        <v>1.042122181083925</v>
+        <v>0.9868447394291291</v>
       </c>
       <c r="K22">
-        <v>1.041599040401966</v>
+        <v>1.025115135142354</v>
       </c>
       <c r="L22">
-        <v>1.038054436519322</v>
+        <v>0.9837543817705894</v>
       </c>
       <c r="M22">
-        <v>1.046075325476636</v>
+        <v>0.9766867804659114</v>
       </c>
       <c r="N22">
-        <v>1.043602114114149</v>
+        <v>0.9882461721517923</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035856016624227</v>
+        <v>0.9575369129138384</v>
       </c>
       <c r="D23">
-        <v>1.038178216488674</v>
+        <v>1.011480075413844</v>
       </c>
       <c r="E23">
-        <v>1.034829335644613</v>
+        <v>0.9704766332074943</v>
       </c>
       <c r="F23">
-        <v>1.043002333228857</v>
+        <v>0.9639672536327627</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038934867282918</v>
+        <v>1.031229891431296</v>
       </c>
       <c r="J23">
-        <v>1.042557555374883</v>
+        <v>0.9895514996712832</v>
       </c>
       <c r="K23">
-        <v>1.041810813500722</v>
+        <v>1.026519863916234</v>
       </c>
       <c r="L23">
-        <v>1.038474607612457</v>
+        <v>0.9863295704552193</v>
       </c>
       <c r="M23">
-        <v>1.046616830175427</v>
+        <v>0.9799577130565414</v>
       </c>
       <c r="N23">
-        <v>1.044038106686538</v>
+        <v>0.9909567763039598</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.038091067164052</v>
+        <v>0.97109753304932</v>
       </c>
       <c r="D24">
-        <v>1.039282591626293</v>
+        <v>1.018110970998567</v>
       </c>
       <c r="E24">
-        <v>1.036756895843373</v>
+        <v>0.9816877909186689</v>
       </c>
       <c r="F24">
-        <v>1.045406510399752</v>
+        <v>0.9778678257291893</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039528882198364</v>
+        <v>1.035560318905779</v>
       </c>
       <c r="J24">
-        <v>1.0442665890273</v>
+        <v>0.9997554184145835</v>
       </c>
       <c r="K24">
-        <v>1.04264123774779</v>
+        <v>1.031827331230194</v>
       </c>
       <c r="L24">
-        <v>1.040124318085773</v>
+        <v>0.9960443066517201</v>
       </c>
       <c r="M24">
-        <v>1.048744071200499</v>
+        <v>0.9922950840266065</v>
       </c>
       <c r="N24">
-        <v>1.045749567362771</v>
+        <v>1.001175185782281</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040676144818778</v>
+        <v>0.9857647347097179</v>
       </c>
       <c r="D25">
-        <v>1.040560490795455</v>
+        <v>1.025361849685155</v>
       </c>
       <c r="E25">
-        <v>1.038987172295075</v>
+        <v>0.9938593103848772</v>
       </c>
       <c r="F25">
-        <v>1.048189313491425</v>
+        <v>0.9929330143978539</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040209297272418</v>
+        <v>1.040209659100414</v>
       </c>
       <c r="J25">
-        <v>1.046239751520525</v>
+        <v>1.01078085646721</v>
       </c>
       <c r="K25">
-        <v>1.043598133983424</v>
+        <v>1.037578811594508</v>
       </c>
       <c r="L25">
-        <v>1.042029718774939</v>
+        <v>1.006553706520429</v>
       </c>
       <c r="M25">
-        <v>1.051203409042699</v>
+        <v>1.005642035872519</v>
       </c>
       <c r="N25">
-        <v>1.047725531973061</v>
+        <v>1.012216281221578</v>
       </c>
     </row>
   </sheetData>
